--- a/01_Input/00_CO Validation/Bosnia and Herzegovina - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Bosnia and Herzegovina - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="360" documentId="11_7A16C5C5EBEF1110EA3321A633CA6B1980AA3C4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40877100-3938-4977-8482-7650F041252D}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="11_7A16C5C5EBEF1110EA3321A633CA6B1980AA3C4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AED13005-3816-4820-B528-337156BC0FEF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="138">
   <si>
     <t>Project ID</t>
   </si>
@@ -111,9 +114,15 @@
     <t>Government Capacity-Building</t>
   </si>
   <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
     <t>Number of public builidings retrofitted</t>
   </si>
   <si>
+    <t>5 buildings</t>
+  </si>
+  <si>
     <t>Target met in 2022. Energy efficient retrofitting of additional 5 buildings in BIH</t>
   </si>
   <si>
@@ -123,48 +132,48 @@
     <t>http://open.undp.org/projects/00105415</t>
   </si>
   <si>
+    <t>Number of people who directly benefit from energy efficiency improvements in public infrastructure/buildings, including street lightening.</t>
+  </si>
+  <si>
+    <t>EE retrofit of public buidlings and public lightning sytems</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Green Deal</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00131266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of residential households with improved EE </t>
+  </si>
+  <si>
+    <t>251 HH</t>
+  </si>
+  <si>
+    <t>Medium Enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of SMEs with improved EE </t>
+  </si>
+  <si>
+    <t>Green Economic Development Project – III Phase</t>
+  </si>
+  <si>
+    <t>http://open.undp.org/projects/00132013</t>
+  </si>
+  <si>
+    <t>40 buildings</t>
+  </si>
+  <si>
     <t>Other Energy Services</t>
   </si>
   <si>
-    <t>Number of people who directly benefit from energy efficiency improvements in public infrastructure/buildings, including street lightening.</t>
-  </si>
-  <si>
-    <t>EE retrofit of public buidlings and public lightning sytems</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Green Deal</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00131266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of residential households with improved EE </t>
-  </si>
-  <si>
-    <t>251 HH</t>
-  </si>
-  <si>
-    <t>Medium Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of SMEs with improved EE </t>
-  </si>
-  <si>
-    <t>Green Economic Development Project – III Phase</t>
-  </si>
-  <si>
-    <t>http://open.undp.org/projects/00132013</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of off-grid households in remote areas in BiH </t>
   </si>
   <si>
@@ -208,6 +217,9 @@
   </si>
   <si>
     <t>PIMS+</t>
+  </si>
+  <si>
+    <t>430 buildings</t>
   </si>
   <si>
     <t>(by the end of 2022 result was 100 public buildings)</t>
@@ -472,7 +484,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +638,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -694,6 +712,30 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,9 +748,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1016,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EEABE7-4A5A-449C-842C-20FB87CD766D}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1098,25 +1137,25 @@
       <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="16">
         <v>29752153</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="35">
         <v>0</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="35">
         <v>120</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="15"/>
@@ -1140,24 +1179,25 @@
     <row r="3" spans="1:18" ht="50.25" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="22" t="s">
+      <c r="C3" s="33"/>
+      <c r="E3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="23">
+      <c r="F3" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="39">
         <v>0</v>
       </c>
-      <c r="H3" s="23">
-        <v>5</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>27</v>
+      <c r="H3" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>29</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="38"/>
+      <c r="L3" s="40"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
@@ -1170,40 +1210,40 @@
         <v>105415</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="16">
         <v>18383776</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="E4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="35">
         <v>567</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="35">
         <v>2698</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>32</v>
+      <c r="I4" s="36" t="s">
+        <v>33</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="38"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
@@ -1216,36 +1256,36 @@
       <c r="B5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="41" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="15">
         <v>614042</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>146</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="38"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1254,32 +1294,32 @@
     <row r="6" spans="1:18" ht="30.75">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="24"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <v>15</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="38"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
@@ -1292,36 +1332,36 @@
       <c r="B7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="41" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="15">
         <v>6294159</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="18">
+      <c r="F7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="15">
         <v>0</v>
       </c>
-      <c r="H7" s="18">
-        <v>40</v>
-      </c>
-      <c r="I7" s="18"/>
+      <c r="H7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="38"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
@@ -1330,24 +1370,24 @@
     <row r="8" spans="1:18" ht="106.5">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="18">
+      <c r="E8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="15">
         <v>0</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="15">
         <v>49000</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="38"/>
+      <c r="L8" s="40"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -1358,24 +1398,24 @@
     <row r="9" spans="1:18" ht="45.75">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="18">
+      <c r="E9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="15">
         <v>0</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="18"/>
+      <c r="H9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="38"/>
+      <c r="L9" s="40"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
@@ -1388,47 +1428,47 @@
         <v>132014</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="15">
         <v>1771084</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="18">
+      <c r="F10" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="15">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="15">
         <v>36</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>49</v>
+      <c r="I10" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="38"/>
+      <c r="L10" s="40"/>
       <c r="M10" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="45.75">
@@ -1436,36 +1476,36 @@
         <v>141105</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="15">
         <v>821580</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="E11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="15">
         <v>0</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="15">
         <v>20</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="38"/>
+      <c r="L11" s="40"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -1474,24 +1514,24 @@
     <row r="12" spans="1:18">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="24"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="18">
+      <c r="F12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="15">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <v>20</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="38"/>
+      <c r="L12" s="40"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
@@ -1504,38 +1544,40 @@
         <v>5882</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="15">
         <v>17346000</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="18">
+      <c r="F13" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15">
         <v>0</v>
       </c>
-      <c r="H13" s="18">
-        <v>430</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>59</v>
+      <c r="H13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="38" t="s">
-        <v>60</v>
+      <c r="L13" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="M13" s="15"/>
       <c r="N13" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -1546,24 +1588,24 @@
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
-      <c r="E14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="18">
+      <c r="E14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="15">
         <v>0</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="15">
         <v>380754</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>62</v>
+      <c r="I14" s="38" t="s">
+        <v>65</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="38"/>
+      <c r="L14" s="40"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
@@ -1572,27 +1614,27 @@
       <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:18" s="31" customFormat="1" ht="30.75">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
         <v>0</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="15">
         <v>4770</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="29"/>
+      <c r="I15" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
@@ -1604,31 +1646,31 @@
         <v>5646</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="15">
         <v>2370000</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="E16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="15">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="15">
         <v>67826</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
-      <c r="L16" s="38" t="s">
-        <v>60</v>
+      <c r="L16" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15" t="s">
@@ -1642,27 +1684,27 @@
       <c r="R16" s="15"/>
     </row>
     <row r="17" spans="1:18" s="31" customFormat="1" ht="45.75">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="29">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="15">
         <v>0</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="15">
         <v>360000</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="29"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="15" t="s">
         <v>23</v>
       </c>
@@ -1719,7 +1761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D17C48C-31E7-4CC3-8A67-A314C1BD7F13}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="I11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -1777,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O1" s="28" t="s">
         <v>13</v>
@@ -1806,7 +1848,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>20</v>
@@ -1846,7 +1888,7 @@
       <c r="D3" s="16"/>
       <c r="E3" s="18"/>
       <c r="F3" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="23">
         <v>0</v>
@@ -1855,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -1866,19 +1908,19 @@
         <v>105415</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="20">
         <v>567</v>
@@ -1887,16 +1929,16 @@
         <v>2698</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="45.75">
@@ -1910,10 +1952,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>38</v>
@@ -1929,10 +1971,10 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="30.75">
@@ -1968,13 +2010,13 @@
         <v>43</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="18">
         <v>0</v>
@@ -1987,10 +2029,10 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="106.5">
@@ -1999,10 +2041,10 @@
       <c r="C8" s="24"/>
       <c r="D8" s="15"/>
       <c r="E8" s="18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
@@ -2021,16 +2063,16 @@
       <c r="C9" s="24"/>
       <c r="D9" s="15"/>
       <c r="E9" s="18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G9" s="18">
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="15"/>
@@ -2042,19 +2084,19 @@
         <v>132014</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="18">
         <v>0</v>
@@ -2063,7 +2105,7 @@
         <v>36</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
@@ -2072,13 +2114,13 @@
         <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="45.75">
@@ -2086,19 +2128,19 @@
         <v>141105</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="18">
         <v>0</v>
@@ -2111,10 +2153,10 @@
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2126,7 +2168,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G12" s="18">
         <v>0</v>
@@ -2144,17 +2186,17 @@
         <v>5882</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="18">
         <v>0</v>
@@ -2163,18 +2205,18 @@
         <v>430</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="76.5">
@@ -2183,10 +2225,10 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G14" s="18">
         <v>0</v>
@@ -2195,7 +2237,7 @@
         <v>380754</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
@@ -2207,7 +2249,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="29">
@@ -2217,13 +2259,13 @@
         <v>4770</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
       <c r="M15" s="32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O15"/>
       <c r="P15"/>
@@ -2236,19 +2278,19 @@
         <v>5646</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
@@ -2260,7 +2302,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O16" t="s">
         <v>23</v>
@@ -2275,10 +2317,10 @@
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" s="29" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
@@ -2406,16 +2448,16 @@
         <v>29752153</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>22</v>
@@ -2429,25 +2471,25 @@
         <v>18</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="10">
         <v>29752153</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="106.5">
@@ -2455,28 +2497,28 @@
         <v>105415</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="10">
         <v>18383776</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30.75">
@@ -2484,10 +2526,10 @@
         <v>107560</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>1594882</v>
@@ -2497,7 +2539,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45.75">
@@ -2514,32 +2556,32 @@
         <v>614042</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="30.75">
       <c r="C7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -2557,48 +2599,48 @@
         <v>6294159</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="106.5">
       <c r="C9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="45.75">
       <c r="C10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -2615,28 +2657,28 @@
         <v>132014</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>1771084</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45.75">
@@ -2644,41 +2686,41 @@
         <v>141105</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>821580</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:10">
       <c r="C14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -2687,60 +2729,60 @@
         <v>5882</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>17346000</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="76.5">
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30.75">
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45.75">
@@ -2748,40 +2790,40 @@
         <v>5646</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>2370000</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" ht="45.75">
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -2832,160 +2874,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="33" t="s">
-        <v>107</v>
+      <c r="A2" s="43" t="s">
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="33"/>
+      <c r="A3" s="43"/>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="43"/>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="34" t="s">
-        <v>113</v>
+      <c r="A5" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34"/>
+      <c r="A6" s="44"/>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="34"/>
+      <c r="A7" s="44"/>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="34"/>
+      <c r="A8" s="44"/>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="34"/>
+      <c r="A9" s="44"/>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="35" t="s">
-        <v>123</v>
+      <c r="A10" s="45" t="s">
+        <v>126</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="35"/>
+      <c r="A11" s="45"/>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="36" t="s">
-        <v>126</v>
+      <c r="A12" s="46" t="s">
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="36"/>
+      <c r="A13" s="46"/>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="36"/>
+      <c r="A14" s="46"/>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
